--- a/aircraftTLARspecifications2024.xlsx
+++ b/aircraftTLARspecifications2024.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aerospace\ADSEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A75954-4C96-4AFF-B356-AC7DD0928164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5F6D7F-E9A7-4A86-B899-FEECE29BDAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="36">
   <si>
     <t>Aircraft Number</t>
   </si>
@@ -147,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -155,6 +156,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -185,9 +191,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,9 +511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X37" sqref="X37"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG37" activeCellId="1" sqref="AG1 AG37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51153,7 +51160,249 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0E6401-FD71-44BC-9E29-5A67A494C6F3}">
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8116</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2100</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9300</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1720</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>500</v>
+      </c>
+      <c r="R6" s="1">
+        <v>298</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>288.14999999999998</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F15" s="1">
+        <v>65</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="O15" s="1">
+        <v>7400</v>
+      </c>
+      <c r="S15" s="1">
+        <v>45</v>
+      </c>
+      <c r="V15" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>90</v>
+      </c>
+      <c r="E19" s="1">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>60</v>
+      </c>
+      <c r="O19" s="1">
+        <v>135</v>
+      </c>
+      <c r="R19" s="1">
+        <v>100</v>
+      </c>
+      <c r="U19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003B35A4F73E5FB46B06133D49831EB02" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="963094af03acbe8bbdbdb5b78098b6c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57737f91-50a7-4bcd-be1e-7a40d09a4546" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97d626fed2f10e20cb731189a2ebb807" ns2:_="">
     <xsd:import namespace="57737f91-50a7-4bcd-be1e-7a40d09a4546"/>
@@ -51297,16 +51546,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86CD7AE1-CF6F-480E-A23F-864C7FED68E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21778F12-2CFE-491E-A7E4-55080D3FBDB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -51322,12 +51570,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86CD7AE1-CF6F-480E-A23F-864C7FED68E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/aircraftTLARspecifications2024.xlsx
+++ b/aircraftTLARspecifications2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aerospace\ADSEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5F6D7F-E9A7-4A86-B899-FEECE29BDAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7657F43-9E25-453A-857D-FB6ACE6FD1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,9 +511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG501"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG37" activeCellId="1" sqref="AG1 AG37"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51165,7 +51165,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
